--- a/demo.xlsx
+++ b/demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22680" windowHeight="12720"/>
+    <workbookView windowWidth="27105" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="菜单结构" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="176">
   <si>
     <t>一级菜单</t>
   </si>
@@ -33,6 +33,15 @@
     <t>五级菜单</t>
   </si>
   <si>
+    <t>六级菜单</t>
+  </si>
+  <si>
+    <t>七级菜单</t>
+  </si>
+  <si>
+    <t>八级菜单</t>
+  </si>
+  <si>
     <t>路径</t>
   </si>
   <si>
@@ -43,52 +52,499 @@
   </si>
   <si>
     <t>是否隐藏（默认0，隐藏：1）</t>
+  </si>
+  <si>
+    <t>权限标识</t>
   </si>
   <si>
     <t>菜单类型(默认菜单)
 目录：M；菜单：C；详情：X；按钮：F</t>
   </si>
   <si>
-    <t>管理数字化</t>
-  </si>
-  <si>
-    <t>生产过程管理</t>
-  </si>
-  <si>
-    <t>项目立项管理</t>
-  </si>
-  <si>
-    <t>执行预算管理</t>
-  </si>
-  <si>
-    <t>过程组织管理</t>
-  </si>
-  <si>
-    <t>生产需求管理</t>
-  </si>
-  <si>
-    <t>完工管理</t>
-  </si>
-  <si>
-    <t>经营过程管理</t>
-  </si>
-  <si>
-    <t>市场信息备案</t>
-  </si>
-  <si>
-    <t>投标预算及投标报价管理</t>
-  </si>
-  <si>
-    <t>合同执行管理</t>
-  </si>
-  <si>
-    <t>应收款管理</t>
-  </si>
-  <si>
-    <t>顾客满意度评价</t>
-  </si>
-  <si>
-    <t>全流程协同管理</t>
+    <t>排序</t>
+  </si>
+  <si>
+    <t>增效管理</t>
+  </si>
+  <si>
+    <t>management</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>办公督办管理</t>
+  </si>
+  <si>
+    <t>月报信息报送</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>公司重点工作事项督办</t>
+  </si>
+  <si>
+    <t>会议室预定</t>
+  </si>
+  <si>
+    <t>公司领导行程安排</t>
+  </si>
+  <si>
+    <t>公司重要事项决策</t>
+  </si>
+  <si>
+    <t>BI驾驶舱</t>
+  </si>
+  <si>
+    <t>公司安全生产</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>市场经营动态</t>
+  </si>
+  <si>
+    <t>办公督办数据</t>
+  </si>
+  <si>
+    <t>人力资源管理</t>
+  </si>
+  <si>
+    <t>员工职称跟踪机制</t>
+  </si>
+  <si>
+    <t>差异化考核</t>
+  </si>
+  <si>
+    <t>月度考核管理</t>
+  </si>
+  <si>
+    <t>年度考核管理</t>
+  </si>
+  <si>
+    <t>BI驾驶舱输出</t>
+  </si>
+  <si>
+    <t>员工评分机制</t>
+  </si>
+  <si>
+    <t>评分人员台账</t>
+  </si>
+  <si>
+    <t>评分基础设置</t>
+  </si>
+  <si>
+    <t>人员评分输出</t>
+  </si>
+  <si>
+    <t>本质安全</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>承包商管理</t>
+  </si>
+  <si>
+    <t>承包商信息管理</t>
+  </si>
+  <si>
+    <t>承包商单位信息管理</t>
+  </si>
+  <si>
+    <t>承包商人员信息管理</t>
+  </si>
+  <si>
+    <t>关键岗位资质认证</t>
+  </si>
+  <si>
+    <t>HSE绩效记分管理</t>
+  </si>
+  <si>
+    <t>作业任务管理</t>
+  </si>
+  <si>
+    <t>承包商单位记分</t>
+  </si>
+  <si>
+    <t>承包商人员记分</t>
+  </si>
+  <si>
+    <t>黑名单管理</t>
+  </si>
+  <si>
+    <t>承包商单位黑名单</t>
+  </si>
+  <si>
+    <t>承包商人员黑名单</t>
+  </si>
+  <si>
+    <t>统计分析</t>
+  </si>
+  <si>
+    <t>隐患上报管理</t>
+  </si>
+  <si>
+    <t>隐患事件管理</t>
+  </si>
+  <si>
+    <t>隐患整改管理</t>
+  </si>
+  <si>
+    <t>隐患整改跟踪统计表</t>
+  </si>
+  <si>
+    <t>综合分析报告</t>
+  </si>
+  <si>
+    <t>隐患概况统计</t>
+  </si>
+  <si>
+    <t>隐患整改分析</t>
+  </si>
+  <si>
+    <t>台账管理</t>
+  </si>
+  <si>
+    <t>ledger</t>
+  </si>
+  <si>
+    <t>LAYOUT</t>
+  </si>
+  <si>
+    <t>3c156355-7766-4180-b5ba-b48b96047e8a</t>
+  </si>
+  <si>
+    <t>设备台账</t>
+  </si>
+  <si>
+    <t>equxipment/index</t>
+  </si>
+  <si>
+    <t>ledger/equipment/index</t>
+  </si>
+  <si>
+    <t>52275726-475f-4e81-9e53-470a8a2854ec</t>
+  </si>
+  <si>
+    <t>设备台账新增</t>
+  </si>
+  <si>
+    <t>equixpment</t>
+  </si>
+  <si>
+    <t>ledger/equipment/EquipAdd</t>
+  </si>
+  <si>
+    <t>1746fbb28113454a7834cd1a0972064</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>设备台账修改</t>
+  </si>
+  <si>
+    <t>EquxipEdit/:id</t>
+  </si>
+  <si>
+    <t>ledger/equipment/EquipEdit</t>
+  </si>
+  <si>
+    <t>1746fbb3dtku54a7834cd1a54901623</t>
+  </si>
+  <si>
+    <t>设备台账详情</t>
+  </si>
+  <si>
+    <t>EquipV1iew/:id</t>
+  </si>
+  <si>
+    <t>ledger/equipment/EquipView</t>
+  </si>
+  <si>
+    <t>3do0fbb3dtku54a7834cd1a8ue5</t>
+  </si>
+  <si>
+    <t>设施台账</t>
+  </si>
+  <si>
+    <t>facility/index</t>
+  </si>
+  <si>
+    <t>ledger/facility/index</t>
+  </si>
+  <si>
+    <t>8327c278-9af8-4f7a-a469-778f6e1e4e55</t>
+  </si>
+  <si>
+    <t>设施台账新增</t>
+  </si>
+  <si>
+    <t>facility</t>
+  </si>
+  <si>
+    <t>ledger/facility/FacilityAdd</t>
+  </si>
+  <si>
+    <t>b489b7b0asdfe9jnked8b1f03uy3fy7</t>
+  </si>
+  <si>
+    <t>设施台账修改</t>
+  </si>
+  <si>
+    <t>FacilxityEdit/:id</t>
+  </si>
+  <si>
+    <t>ledger/facility/FacilityEdit</t>
+  </si>
+  <si>
+    <t>b489b7b0e643459jnked8b1f03uye83g</t>
+  </si>
+  <si>
+    <t>设施台账详情</t>
+  </si>
+  <si>
+    <t>FacilityDetail/:id</t>
+  </si>
+  <si>
+    <t>ledger/facility/FacilityDetail</t>
+  </si>
+  <si>
+    <t>b489b7b0e643459jnked8b1f03porew5</t>
+  </si>
+  <si>
+    <t>项目台账</t>
+  </si>
+  <si>
+    <t>project/index</t>
+  </si>
+  <si>
+    <t>ledger/project/index</t>
+  </si>
+  <si>
+    <t>ba6d4e92-6911-4903-b37c-cb3ce77decb8</t>
+  </si>
+  <si>
+    <t>项目台账修改</t>
+  </si>
+  <si>
+    <t>ProjectEdit/:id</t>
+  </si>
+  <si>
+    <t>ledger/project/ProjectEdit</t>
+  </si>
+  <si>
+    <t>b14b9958c2ed4b75af706de106b378dj</t>
+  </si>
+  <si>
+    <t>项目台账新增</t>
+  </si>
+  <si>
+    <t>project1x</t>
+  </si>
+  <si>
+    <t>ledger/project/ProjectAdd</t>
+  </si>
+  <si>
+    <t>b14b9958c2ed4bijs8706de106b378dj</t>
+  </si>
+  <si>
+    <t>项目台账详情</t>
+  </si>
+  <si>
+    <t>ProjectDetail/:id</t>
+  </si>
+  <si>
+    <t>ledger/project/ProjectDetail</t>
+  </si>
+  <si>
+    <t>b14b9958c2ed4b75af706de106b31234</t>
+  </si>
+  <si>
+    <t>设备个性化参数</t>
+  </si>
+  <si>
+    <t>eqindivi</t>
+  </si>
+  <si>
+    <t>ledger/eqindivi/index</t>
+  </si>
+  <si>
+    <t>1746fbb28113454a9900cd1a0975o32</t>
+  </si>
+  <si>
+    <t>设备个性化参数详情</t>
+  </si>
+  <si>
+    <t>eqindiviDetail/:id</t>
+  </si>
+  <si>
+    <t>ledger/eqindivi/EqindiviDetail</t>
+  </si>
+  <si>
+    <t>26e92ec608084517b45b4ab53d9je03t</t>
+  </si>
+  <si>
+    <t>设备\设施类型</t>
+  </si>
+  <si>
+    <t>epfaclassx/index</t>
+  </si>
+  <si>
+    <t>ledger/epfaclass/index</t>
+  </si>
+  <si>
+    <t>5cb48074a9da4bdaaffde7afc2756bdf</t>
+  </si>
+  <si>
+    <t>设备\设施类型详情</t>
+  </si>
+  <si>
+    <t>EpfaclassDetail/:id</t>
+  </si>
+  <si>
+    <t>ledger/epfaclass/EpfaclassDetail</t>
+  </si>
+  <si>
+    <t>26e92ec608084517b45b4ab5d8a4768f</t>
+  </si>
+  <si>
+    <t>项目类型</t>
+  </si>
+  <si>
+    <t>prjtyp/index</t>
+  </si>
+  <si>
+    <t>ledger/prjtyp/index</t>
+  </si>
+  <si>
+    <t>7d20296d5d0f4038ab7359321d6824ca</t>
+  </si>
+  <si>
+    <t>项目类型详情</t>
+  </si>
+  <si>
+    <t>PrjtypDetail/:id</t>
+  </si>
+  <si>
+    <t>ledger/prjtyp/PrjtypDetail</t>
+  </si>
+  <si>
+    <t>14586935a0ae42f3b0373a03c3b5a3e7</t>
+  </si>
+  <si>
+    <t>知识中心</t>
+  </si>
+  <si>
+    <t>knowledgehub</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>knowledgehub/index</t>
+  </si>
+  <si>
+    <t>文档中心</t>
+  </si>
+  <si>
+    <t>documentationhub</t>
+  </si>
+  <si>
+    <t>前期研究</t>
+  </si>
+  <si>
+    <t>dochub/pxrere1search</t>
+  </si>
+  <si>
+    <t>dochub/preresearch/index</t>
+  </si>
+  <si>
+    <t>工程建造</t>
+  </si>
+  <si>
+    <t>dochub/engi1nconstruct</t>
+  </si>
+  <si>
+    <t>dochub/enginconstruct/index</t>
+  </si>
+  <si>
+    <t>生产运维</t>
+  </si>
+  <si>
+    <t>dochub/prodsuctmaint</t>
+  </si>
+  <si>
+    <t>dochub/productmaint/index</t>
+  </si>
+  <si>
+    <t>废弃处置</t>
+  </si>
+  <si>
+    <t>dochub/wastedisposal</t>
+  </si>
+  <si>
+    <t>dochub/wastedisposal/index</t>
+  </si>
+  <si>
+    <t>三维模型</t>
+  </si>
+  <si>
+    <t>dochub/threevis</t>
+  </si>
+  <si>
+    <t>dochub/threevis/index</t>
+  </si>
+  <si>
+    <t>档案数字化</t>
+  </si>
+  <si>
+    <t>档案收集</t>
+  </si>
+  <si>
+    <t>收集任务</t>
+  </si>
+  <si>
+    <t>收集库</t>
+  </si>
+  <si>
+    <t>离线收集</t>
+  </si>
+  <si>
+    <t>回收站</t>
+  </si>
+  <si>
+    <t>预归档管理</t>
+  </si>
+  <si>
+    <t>预归档库</t>
+  </si>
+  <si>
+    <t>档案设置</t>
+  </si>
+  <si>
+    <t>全宗管理</t>
+  </si>
+  <si>
+    <t>元数据管理配置</t>
+  </si>
+  <si>
+    <t>四性检测</t>
+  </si>
+  <si>
+    <t>档案统计</t>
+  </si>
+  <si>
+    <t>收集及预归档统计</t>
+  </si>
+  <si>
+    <t>日志管理</t>
+  </si>
+  <si>
+    <t>业务日志</t>
   </si>
 </sst>
 </file>
@@ -96,12 +552,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,8 +566,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -119,51 +582,78 @@
     </font>
     <font>
       <b/>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF373C43"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F2329"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <color rgb="FF1F2329"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF373C43"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -178,7 +668,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,13 +699,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,7 +722,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,36 +730,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,15 +758,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,13 +796,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCFF"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,7 +904,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,7 +922,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,91 +958,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,65 +976,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="20">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF333333"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF333333"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF333333"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF333333"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF333333"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -516,14 +1073,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF333333"/>
+        <color rgb="FF1F2329"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FF1F2329"/>
+      </right>
       <top style="thin">
-        <color rgb="FF333333"/>
+        <color rgb="FF1F2329"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF333333"/>
+        <color rgb="FF1F2329"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,39 +1102,48 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF1F2329"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FF1F2329"/>
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF1F2329"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF1F2329"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color rgb="FF333333"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF1F2329"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF1F2329"/>
-      </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF1F2329"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,36 +1153,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,26 +1181,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -677,191 +1195,328 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -916,6 +1571,18 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1212,153 +1879,1924 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:O86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
-    <col min="3" max="3" width="22.625" customWidth="1"/>
-    <col min="9" max="9" width="37.75" customWidth="1"/>
-    <col min="10" max="10" width="57.125" customWidth="1"/>
+    <col min="1" max="1" width="20.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.4416666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1583333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.7916666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.9166666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.575" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.3416666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="34.6083333333333" style="1" customWidth="1"/>
+    <col min="10" max="10" width="41.0333333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.7833333333333" style="2" customWidth="1"/>
+    <col min="12" max="12" width="24.4083333333333" style="1" customWidth="1"/>
+    <col min="13" max="13" width="22.425" style="1" customWidth="1"/>
+    <col min="14" max="14" width="44.125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="12.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="19.05" customHeight="1" spans="1:15">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="K1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="8" t="s">
+      <c r="L1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="9"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="9" t="s">
+      <c r="M1" s="31" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="9" t="s">
+      <c r="N1" s="29" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="9" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="9" t="s">
+    <row r="2" s="1" customFormat="1" ht="19.05" customHeight="1" spans="1:14">
+      <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="9" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
+      <c r="J2" s="28"/>
+      <c r="K2" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="29"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="9" t="s">
+    </row>
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="9" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A4" s="10"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="9" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="9" t="s">
+    <row r="5" s="1" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A5" s="10"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="9" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A6" s="10"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="9" t="s">
+      <c r="D6" s="15"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A7" s="10"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="11" t="s">
         <v>23</v>
       </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A8" s="10"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A9" s="10"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A10" s="10"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A11" s="10"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A12" s="10"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A14" s="10"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A15" s="10"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A16" s="10"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A17" s="10"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A18" s="10"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A19" s="10"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A20" s="10"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A21" s="10"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A22" s="10"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:14">
+      <c r="A23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" s="25"/>
+      <c r="K23" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="L23" s="30"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A24" s="17"/>
+      <c r="B24" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A25" s="17"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A26" s="17"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A27" s="17"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A28" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A29" s="17"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="15"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A30" s="17"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A31" s="17"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A32" s="17"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A33" s="17"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A34" s="17"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A35" s="17"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A36" s="17"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="15"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A37" s="17"/>
+      <c r="B37" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="20"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A38" s="17"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A39" s="17"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="15"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A40" s="17"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A41" s="17"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="22"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A42" s="17"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A43" s="17"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="32"/>
+      <c r="N43" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="1:14">
+      <c r="A44" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="J44" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K44" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="L44" s="30"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="1:14">
+      <c r="A45" s="26"/>
+      <c r="B45" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="24"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="J45" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="K45" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="L45" s="30"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="1:14">
+      <c r="A46" s="26"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="K46" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="L46" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="M46" s="32"/>
+      <c r="N46" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="1:14">
+      <c r="A47" s="26"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="J47" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="K47" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="L47" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="M47" s="32"/>
+      <c r="N47" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="1:14">
+      <c r="A48" s="26"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="J48" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="K48" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="L48" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="M48" s="32"/>
+      <c r="N48" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="1:14">
+      <c r="A49" s="26"/>
+      <c r="B49" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="24"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="J49" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="K49" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="L49" s="30"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="1:14">
+      <c r="A50" s="26"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="J50" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="K50" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="L50" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="M50" s="32"/>
+      <c r="N50" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="1:14">
+      <c r="A51" s="26"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="J51" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="K51" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="L51" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="M51" s="32"/>
+      <c r="N51" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="1:14">
+      <c r="A52" s="26"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="J52" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="K52" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="L52" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="M52" s="32"/>
+      <c r="N52" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="1:14">
+      <c r="A53" s="26"/>
+      <c r="B53" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="24"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="J53" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="K53" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="L53" s="30"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="1:14">
+      <c r="A54" s="26"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="J54" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="K54" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="L54" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="M54" s="32"/>
+      <c r="N54" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="1:14">
+      <c r="A55" s="26"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="J55" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="K55" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="L55" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="M55" s="32"/>
+      <c r="N55" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="1:14">
+      <c r="A56" s="26"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="J56" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="K56" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="L56" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="M56" s="32"/>
+      <c r="N56" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="1:14">
+      <c r="A57" s="26"/>
+      <c r="B57" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" s="24"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="J57" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="K57" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="L57" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="M57" s="32"/>
+      <c r="N57" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" s="1" customFormat="1" spans="1:14">
+      <c r="A58" s="26"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="J58" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="K58" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="L58" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="M58" s="32"/>
+      <c r="N58" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="1:14">
+      <c r="A59" s="26"/>
+      <c r="B59" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" s="24"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="J59" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="K59" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="L59" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="M59" s="32"/>
+      <c r="N59" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="1:14">
+      <c r="A60" s="26"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="J60" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="K60" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="L60" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="M60" s="32"/>
+      <c r="N60" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="1:14">
+      <c r="A61" s="26"/>
+      <c r="B61" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" s="24"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="J61" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="K61" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="L61" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="M61" s="32"/>
+      <c r="N61" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="1:14">
+      <c r="A62" s="26"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J62" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="K62" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="L62" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="M62" s="32"/>
+      <c r="N62" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" s="1" customFormat="1" spans="1:14">
+      <c r="A63" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="J63" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K63" s="30"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="32"/>
+      <c r="N63" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="1:14">
+      <c r="A64" s="24"/>
+      <c r="B64" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" s="24"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="J64" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="K64" s="30"/>
+      <c r="L64" s="30"/>
+      <c r="M64" s="32"/>
+      <c r="N64" s="30"/>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="1:14">
+      <c r="A65" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B65" s="24"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="J65" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K65" s="30"/>
+      <c r="L65" s="30"/>
+      <c r="M65" s="32"/>
+      <c r="N65" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="1" spans="1:14">
+      <c r="A66" s="24"/>
+      <c r="B66" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" s="24"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="J66" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="K66" s="30"/>
+      <c r="L66" s="30"/>
+      <c r="M66" s="32"/>
+      <c r="N66" s="30"/>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="1:14">
+      <c r="A67" s="24"/>
+      <c r="B67" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C67" s="24"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="J67" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="K67" s="30"/>
+      <c r="L67" s="30"/>
+      <c r="M67" s="32"/>
+      <c r="N67" s="30"/>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="1:14">
+      <c r="A68" s="24"/>
+      <c r="B68" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68" s="24"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="J68" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="K68" s="30"/>
+      <c r="L68" s="30"/>
+      <c r="M68" s="32"/>
+      <c r="N68" s="30"/>
+    </row>
+    <row r="69" s="1" customFormat="1" spans="1:14">
+      <c r="A69" s="24"/>
+      <c r="B69" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C69" s="24"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="J69" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="K69" s="30"/>
+      <c r="L69" s="30"/>
+      <c r="M69" s="32"/>
+      <c r="N69" s="30"/>
+    </row>
+    <row r="70" s="1" customFormat="1" spans="1:14">
+      <c r="A70" s="24"/>
+      <c r="B70" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C70" s="24"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="J70" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="K70" s="30"/>
+      <c r="L70" s="30"/>
+      <c r="M70" s="32"/>
+      <c r="N70" s="30"/>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="1:14">
+      <c r="A71" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="30"/>
+      <c r="L71" s="30"/>
+      <c r="M71" s="32"/>
+      <c r="N71" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="1:14">
+      <c r="A72" s="24"/>
+      <c r="B72" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="C72" s="24"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="30"/>
+      <c r="L72" s="30"/>
+      <c r="M72" s="32"/>
+      <c r="N72" s="30"/>
+    </row>
+    <row r="73" s="1" customFormat="1" spans="1:14">
+      <c r="A73" s="24"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
+      <c r="K73" s="30"/>
+      <c r="L73" s="30"/>
+      <c r="M73" s="32"/>
+      <c r="N73" s="30"/>
+    </row>
+    <row r="74" s="1" customFormat="1" spans="1:14">
+      <c r="A74" s="24"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="30"/>
+      <c r="L74" s="30"/>
+      <c r="M74" s="32"/>
+      <c r="N74" s="30"/>
+    </row>
+    <row r="75" s="1" customFormat="1" spans="1:14">
+      <c r="A75" s="24"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="D75" s="33"/>
+      <c r="E75" s="33"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="33"/>
+      <c r="I75" s="33"/>
+      <c r="J75" s="33"/>
+      <c r="K75" s="38"/>
+      <c r="L75" s="38"/>
+      <c r="M75" s="41"/>
+      <c r="N75" s="38"/>
+    </row>
+    <row r="76" s="1" customFormat="1" spans="1:14">
+      <c r="A76" s="24"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D76" s="34"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="34"/>
+      <c r="I76" s="34"/>
+      <c r="J76" s="34"/>
+      <c r="K76" s="39"/>
+      <c r="L76" s="39"/>
+      <c r="M76" s="42"/>
+      <c r="N76" s="39"/>
+    </row>
+    <row r="77" s="1" customFormat="1" spans="1:14">
+      <c r="A77" s="24"/>
+      <c r="B77" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C77" s="24"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="34"/>
+      <c r="I77" s="34"/>
+      <c r="J77" s="34"/>
+      <c r="K77" s="39"/>
+      <c r="L77" s="39"/>
+      <c r="M77" s="42"/>
+      <c r="N77" s="39"/>
+    </row>
+    <row r="78" s="1" customFormat="1" spans="1:14">
+      <c r="A78" s="24"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="D78" s="34"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="34"/>
+      <c r="J78" s="34"/>
+      <c r="K78" s="39"/>
+      <c r="L78" s="39"/>
+      <c r="M78" s="42"/>
+      <c r="N78" s="39"/>
+    </row>
+    <row r="79" s="1" customFormat="1" spans="1:14">
+      <c r="A79" s="24"/>
+      <c r="B79" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C79" s="24"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="34"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="34"/>
+      <c r="I79" s="34"/>
+      <c r="J79" s="34"/>
+      <c r="K79" s="39"/>
+      <c r="L79" s="39"/>
+      <c r="M79" s="42"/>
+      <c r="N79" s="39"/>
+    </row>
+    <row r="80" s="1" customFormat="1" spans="1:14">
+      <c r="A80" s="24"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="34"/>
+      <c r="K80" s="39"/>
+      <c r="L80" s="39"/>
+      <c r="M80" s="42"/>
+      <c r="N80" s="39"/>
+    </row>
+    <row r="81" s="1" customFormat="1" spans="1:14">
+      <c r="A81" s="24"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="D81" s="34"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="34"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="34"/>
+      <c r="I81" s="34"/>
+      <c r="J81" s="34"/>
+      <c r="K81" s="39"/>
+      <c r="L81" s="39"/>
+      <c r="M81" s="42"/>
+      <c r="N81" s="39"/>
+    </row>
+    <row r="82" s="1" customFormat="1" spans="1:14">
+      <c r="A82" s="24"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="D82" s="34"/>
+      <c r="E82" s="34"/>
+      <c r="F82" s="34"/>
+      <c r="G82" s="34"/>
+      <c r="H82" s="34"/>
+      <c r="I82" s="34"/>
+      <c r="J82" s="34"/>
+      <c r="K82" s="39"/>
+      <c r="L82" s="39"/>
+      <c r="M82" s="42"/>
+      <c r="N82" s="39"/>
+    </row>
+    <row r="83" s="1" customFormat="1" spans="1:14">
+      <c r="A83" s="24"/>
+      <c r="B83" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="C83" s="24"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="34"/>
+      <c r="F83" s="34"/>
+      <c r="G83" s="34"/>
+      <c r="H83" s="34"/>
+      <c r="I83" s="34"/>
+      <c r="J83" s="34"/>
+      <c r="K83" s="39"/>
+      <c r="L83" s="39"/>
+      <c r="M83" s="42"/>
+      <c r="N83" s="39"/>
+    </row>
+    <row r="84" s="1" customFormat="1" spans="1:14">
+      <c r="A84" s="24"/>
+      <c r="B84" s="24"/>
+      <c r="C84" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="D84" s="35"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="37"/>
+      <c r="K84" s="40"/>
+      <c r="L84" s="40"/>
+      <c r="M84" s="43"/>
+      <c r="N84" s="40"/>
+    </row>
+    <row r="85" s="1" customFormat="1" spans="1:14">
+      <c r="A85" s="24"/>
+      <c r="B85" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C85" s="24"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="25"/>
+      <c r="K85" s="30"/>
+      <c r="L85" s="30"/>
+      <c r="M85" s="32"/>
+      <c r="N85" s="30"/>
+    </row>
+    <row r="86" s="1" customFormat="1" spans="1:14">
+      <c r="A86" s="24"/>
+      <c r="B86" s="24"/>
+      <c r="C86" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D86" s="36"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="25"/>
+      <c r="I86" s="25"/>
+      <c r="J86" s="25"/>
+      <c r="K86" s="30"/>
+      <c r="L86" s="30"/>
+      <c r="M86" s="32"/>
+      <c r="N86" s="30"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D1:D2 D44:D86">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
